--- a/pred_ohlcv/54_21/2019-10-26 POLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 POLY ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>323769.7806</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>310441.3008</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>276101.0903</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>278391.2431</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>280097.8367</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>353507.1801</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>349856.327</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>318339.143</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>318339.143</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>521685.9781999999</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>519938.9692999999</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>519938.9692999999</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>528927.3080999999</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>505320.7898999999</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>509492.2438999999</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>484140.6690999999</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>487536.2037</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>480049.439</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>470854.828</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>477722.8808</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>476703.282</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>459161.6335</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>421866.4096</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>425376.4096</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>423322.6183481606</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>421922.6183481606</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>421932.6183481606</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>421895.6183481606</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>421895.6183481606</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>421895.6183481606</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>421895.6183481606</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>421885.6183481606</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>414198.0754481606</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>396155.0754481606</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>396155.0754481606</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 POLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 POLY ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>323769.7806</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>310441.3008</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>276101.0903</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>278391.2431</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>280097.8367</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>280097.8367</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>353507.1801</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>349856.327</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>318339.143</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>318339.143</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>521685.9781999999</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>519938.9692999999</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>519938.9692999999</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>528927.3080999999</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>505320.7898999999</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>509492.2438999999</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>484140.6690999999</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>484140.6690999999</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>487536.2037</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>480049.439</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>470854.828</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>477722.8808</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>476703.282</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>459161.6335</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>421866.4096</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>425376.4096</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>423322.6183481606</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>421922.6183481606</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>421922.6183481606</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>421895.6183481606</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>421895.6183481606</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>421895.6183481606</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>421895.6183481606</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>421885.6183481606</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>414198.0754481606</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>396155.0754481606</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>396155.0754481606</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
